--- a/Final report/Receipt Page/Testing Spreadsheet v1.0 OrderReceiptPage.xlsx
+++ b/Final report/Receipt Page/Testing Spreadsheet v1.0 OrderReceiptPage.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonnie\Documents\Software Development\CSC7056 Software Testing &amp; Verification\Group Project\Software-Testing-And-Verification\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <workbookPr autoCompressPictures="0"/>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24840" windowHeight="15600" firstSheet="1" activeTab="2"/>
@@ -22,7 +17,7 @@
   <definedNames>
     <definedName name="_Toc407532261" localSheetId="0">Reqs!$B$2</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -37,7 +32,7 @@
     <author>qubsys</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +70,7 @@
     <author>qubsys</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -171,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="321">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -879,18 +874,6 @@
     <t>The system should prevent unregistered users accessing the Schedule Order page. This will be tested across all mobile devices that have been listed in the spec, as well as all the browsers. The automated test shall be made and recorded through Firefox browser</t>
   </si>
   <si>
-    <t>OrderReceipt_1</t>
-  </si>
-  <si>
-    <t>OrderReceipt_2</t>
-  </si>
-  <si>
-    <t>OrderReceipt_3</t>
-  </si>
-  <si>
-    <t>OrderReceipt_4</t>
-  </si>
-  <si>
     <t>4.1.10, 3.2.2</t>
   </si>
   <si>
@@ -972,9 +955,6 @@
     <t>06/14/15</t>
   </si>
   <si>
-    <t>OrderReceipt_5</t>
-  </si>
-  <si>
     <t>Where it says "you're logged in as &lt;username&gt;, it is highlighten in bold with a full stop at the end. This could be confusing as having the full stop in bold may lead some users to think they have input their email incorrect. This is extremely minor and fussy however, but is consistent across all browsers and mobile devices</t>
   </si>
   <si>
@@ -1158,12 +1138,6 @@
     <t>Login: ahale03@qub.ac.uk    Password :lespaul260                         New Password: adamhale03               Pizza:Classic Deluxe with olives</t>
   </si>
   <si>
-    <t>OrderReceipt_6</t>
-  </si>
-  <si>
-    <t>OrderReceipt_7</t>
-  </si>
-  <si>
     <t>The spec clearly state that a unique order reference will be provided on the order receipt and this is not the case on some devices and browsers. As there was significant emphasis placed on having a unique order reference from the spec, this has been assigned critical status. This case also fails on  the iPad4, the iPhone 6 and the Samsung Galaxy S4 mobile device as well as Firefox browser</t>
   </si>
   <si>
@@ -1201,6 +1175,30 @@
   </si>
   <si>
     <t>OrderReceipt_TConn_31</t>
+  </si>
+  <si>
+    <t>OrderReceipt_Defect_1</t>
+  </si>
+  <si>
+    <t>OrderReceipt_Defect_2</t>
+  </si>
+  <si>
+    <t>OrderReceipt_Defect_3</t>
+  </si>
+  <si>
+    <t>OrderReceipt_Defect_4</t>
+  </si>
+  <si>
+    <t>OrderReceipt_Defect_5</t>
+  </si>
+  <si>
+    <t>OrderReceipt_Defect_6</t>
+  </si>
+  <si>
+    <t>OrderReceipt_Defect_7</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -1419,8 +1417,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="957">
+  <cellStyleXfs count="963">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2508,7 +2512,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="957">
+  <cellStyles count="963">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2987,6 +2991,9 @@
     <cellStyle name="Followed Hyperlink" xfId="952" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="954" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="956" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="958" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="960" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="962" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3465,6 +3472,9 @@
     <cellStyle name="Hyperlink" xfId="951" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="953" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="955" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="957" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="959" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="961" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -3609,13 +3619,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3705,19 +3715,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3732,11 +3742,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1136419104"/>
-        <c:axId val="1136417472"/>
+        <c:axId val="-2146790744"/>
+        <c:axId val="2103177032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1136419104"/>
+        <c:axId val="-2146790744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3746,7 +3756,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1136417472"/>
+        <c:crossAx val="2103177032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3754,7 +3764,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1136417472"/>
+        <c:axId val="2103177032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3765,7 +3775,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1136419104"/>
+        <c:crossAx val="-2146790744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4140,12 +4150,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4153,7 +4163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4173,23 +4183,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF023FAE"/>
   </sheetPr>
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="47.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="47.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="25" customHeight="1">
       <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
@@ -4203,7 +4213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="35.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>91</v>
       </c>
@@ -4211,7 +4221,7 @@
         <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -4220,7 +4230,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="35.5" customHeight="1">
       <c r="A3" s="32" t="s">
         <v>92</v>
       </c>
@@ -4228,14 +4238,14 @@
         <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="28">
       <c r="A4" s="32" t="s">
         <v>93</v>
       </c>
@@ -4243,7 +4253,7 @@
         <v>187</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -4252,7 +4262,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="23">
       <c r="A5" s="32" t="s">
         <v>94</v>
       </c>
@@ -4260,7 +4270,7 @@
         <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4269,7 +4279,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="28">
       <c r="A6" s="32" t="s">
         <v>95</v>
       </c>
@@ -4277,7 +4287,7 @@
         <v>188</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
@@ -4286,7 +4296,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="28">
       <c r="A7" s="32" t="s">
         <v>96</v>
       </c>
@@ -4294,7 +4304,7 @@
         <v>112</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -4303,7 +4313,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="28">
       <c r="A8" s="32" t="s">
         <v>97</v>
       </c>
@@ -4311,7 +4321,7 @@
         <v>113</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -4320,7 +4330,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="32" t="s">
         <v>98</v>
       </c>
@@ -4328,13 +4338,13 @@
         <v>114</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="28">
       <c r="A10" s="32" t="s">
         <v>99</v>
       </c>
@@ -4342,13 +4352,13 @@
         <v>115</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="32" t="s">
         <v>100</v>
       </c>
@@ -4356,27 +4366,27 @@
         <v>189</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="42">
       <c r="A12" s="32" t="s">
         <v>101</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="28">
       <c r="A13" s="32" t="s">
         <v>111</v>
       </c>
@@ -4384,261 +4394,261 @@
         <v>155</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="42">
       <c r="A14" s="32" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="42">
       <c r="A15" s="32" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="32"/>
       <c r="B19" s="32"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="32"/>
       <c r="B20" s="32"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="32"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="32"/>
       <c r="B22" s="37"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="32"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="32"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="32"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="32"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="32"/>
       <c r="B29" s="37"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="32"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="32"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="32"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="32"/>
       <c r="B33" s="32"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="32"/>
       <c r="B34" s="32"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="32"/>
       <c r="B35" s="37"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="32"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="32"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="32"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="32"/>
       <c r="B39" s="32"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="32"/>
       <c r="B40" s="32"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="32"/>
       <c r="B41" s="37"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="32"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="32"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="32"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="32"/>
       <c r="B45" s="32"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="32"/>
       <c r="B46" s="32"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="32"/>
       <c r="B47" s="37"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="32"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="32"/>
       <c r="B49" s="32"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="32"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="32"/>
       <c r="B51" s="32"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="32"/>
       <c r="B52" s="32"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="32"/>
       <c r="B53" s="37"/>
       <c r="C53" s="1"/>
@@ -4668,35 +4678,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:Z161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K6" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
-    <col min="5" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.5" customWidth="1"/>
+    <col min="5" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="29.42578125" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="65.7109375" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" customWidth="1"/>
+    <col min="10" max="10" width="29.5" customWidth="1"/>
+    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" customWidth="1"/>
+    <col min="15" max="15" width="65.6640625" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" customWidth="1"/>
+    <col min="20" max="20" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="26">
       <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
@@ -4744,7 +4754,7 @@
       </c>
       <c r="P1" s="19"/>
     </row>
-    <row r="2" spans="1:26" ht="57" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="39">
       <c r="A2" s="1" t="s">
         <v>164</v>
       </c>
@@ -4755,7 +4765,7 @@
         <v>64</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E2" s="32" t="s">
         <v>91</v>
@@ -4783,24 +4793,24 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="65">
       <c r="A3" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E3" s="32" t="s">
         <v>91</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G3" s="13">
         <v>42074</v>
@@ -4822,24 +4832,24 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="65">
       <c r="A4" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E4" s="32" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G4" s="13">
         <v>42074</v>
@@ -4861,24 +4871,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="65">
       <c r="A5" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E5" s="32" t="s">
         <v>91</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G5" s="13">
         <v>42074</v>
@@ -4890,7 +4900,7 @@
         <v>62</v>
       </c>
       <c r="J5" s="44" t="s">
-        <v>212</v>
+        <v>313</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>33</v>
@@ -4905,28 +4915,28 @@
         <v>68</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="P5" s="10"/>
     </row>
-    <row r="6" spans="1:26" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="65">
       <c r="A6" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C6" s="38" t="s">
         <v>64</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="40" t="s">
-        <v>27</v>
+      <c r="F6" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="G6" s="41">
         <v>42074</v>
@@ -4945,24 +4955,24 @@
       <c r="O6" s="44"/>
       <c r="P6" s="10"/>
     </row>
-    <row r="7" spans="1:26" ht="57" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="52">
       <c r="A7" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C7" s="38" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="40" t="s">
-        <v>27</v>
+      <c r="F7" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="G7" s="41">
         <v>42074</v>
@@ -4984,7 +4994,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="57" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="52">
       <c r="A8" s="1" t="s">
         <v>170</v>
       </c>
@@ -4995,7 +5005,7 @@
         <v>64</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>92</v>
@@ -5027,18 +5037,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="57" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="52">
       <c r="A9" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C9" s="38" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>92</v>
@@ -5070,18 +5080,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="57" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="52">
       <c r="A10" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C10" s="38" t="s">
         <v>64</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>92</v>
@@ -5099,7 +5109,7 @@
         <v>62</v>
       </c>
       <c r="J10" s="44" t="s">
-        <v>213</v>
+        <v>314</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>33</v>
@@ -5114,7 +5124,7 @@
         <v>68</v>
       </c>
       <c r="O10" s="44" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="P10" s="10"/>
       <c r="T10" t="s">
@@ -5125,7 +5135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="75.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="76" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>173</v>
       </c>
@@ -5136,7 +5146,7 @@
         <v>64</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>102</v>
@@ -5154,7 +5164,7 @@
         <v>62</v>
       </c>
       <c r="J11" s="44" t="s">
-        <v>214</v>
+        <v>315</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>33</v>
@@ -5173,7 +5183,7 @@
       </c>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" spans="1:26" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="52">
       <c r="A12" s="1" t="s">
         <v>174</v>
       </c>
@@ -5184,7 +5194,7 @@
         <v>64</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>102</v>
@@ -5209,7 +5219,7 @@
       <c r="O12" s="44"/>
       <c r="P12" s="10"/>
     </row>
-    <row r="13" spans="1:26" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="52">
       <c r="A13" s="1" t="s">
         <v>175</v>
       </c>
@@ -5220,7 +5230,7 @@
         <v>64</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>102</v>
@@ -5245,7 +5255,7 @@
       <c r="O13" s="45"/>
       <c r="P13" s="10"/>
     </row>
-    <row r="14" spans="1:26" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="52">
       <c r="A14" s="1" t="s">
         <v>176</v>
       </c>
@@ -5256,7 +5266,7 @@
         <v>64</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>102</v>
@@ -5281,21 +5291,21 @@
       <c r="O14" s="45"/>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" spans="1:26" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="52">
       <c r="A15" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F15" s="40" t="s">
         <v>6</v>
@@ -5317,7 +5327,7 @@
       <c r="O15" s="45"/>
       <c r="P15" s="10"/>
     </row>
-    <row r="16" spans="1:26" ht="57" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="39">
       <c r="A16" s="1" t="s">
         <v>178</v>
       </c>
@@ -5328,7 +5338,7 @@
         <v>64</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>103</v>
@@ -5353,7 +5363,7 @@
       <c r="O16" s="45"/>
       <c r="P16" s="10"/>
     </row>
-    <row r="17" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="52">
       <c r="A17" s="1" t="s">
         <v>179</v>
       </c>
@@ -5364,7 +5374,7 @@
         <v>64</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>103</v>
@@ -5382,7 +5392,7 @@
         <v>62</v>
       </c>
       <c r="J17" s="44" t="s">
-        <v>215</v>
+        <v>316</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>33</v>
@@ -5397,11 +5407,11 @@
         <v>68</v>
       </c>
       <c r="O17" s="45" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="P17" s="10"/>
     </row>
-    <row r="18" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="52">
       <c r="A18" s="1" t="s">
         <v>180</v>
       </c>
@@ -5412,7 +5422,7 @@
         <v>88</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E18" s="32" t="s">
         <v>104</v>
@@ -5437,7 +5447,7 @@
       <c r="O18" s="45"/>
       <c r="P18" s="10"/>
     </row>
-    <row r="19" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="39">
       <c r="A19" s="1" t="s">
         <v>181</v>
       </c>
@@ -5448,7 +5458,7 @@
         <v>118</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E19" s="32" t="s">
         <v>105</v>
@@ -5473,7 +5483,7 @@
       <c r="O19" s="45"/>
       <c r="P19" s="10"/>
     </row>
-    <row r="20" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="39">
       <c r="A20" s="1" t="s">
         <v>182</v>
       </c>
@@ -5484,7 +5494,7 @@
         <v>118</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>106</v>
@@ -5502,7 +5512,7 @@
         <v>62</v>
       </c>
       <c r="J20" s="45" t="s">
-        <v>243</v>
+        <v>317</v>
       </c>
       <c r="K20" s="35" t="s">
         <v>33</v>
@@ -5517,11 +5527,11 @@
         <v>68</v>
       </c>
       <c r="O20" s="32" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P20" s="10"/>
     </row>
-    <row r="21" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="39">
       <c r="A21" s="1" t="s">
         <v>183</v>
       </c>
@@ -5532,7 +5542,7 @@
         <v>118</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E21" s="32" t="s">
         <v>107</v>
@@ -5557,7 +5567,7 @@
       <c r="O21" s="45"/>
       <c r="P21" s="10"/>
     </row>
-    <row r="22" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="39">
       <c r="A22" s="1" t="s">
         <v>184</v>
       </c>
@@ -5568,13 +5578,13 @@
         <v>118</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E22" s="32" t="s">
         <v>108</v>
       </c>
       <c r="F22" s="40" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G22" s="39">
         <v>42099</v>
@@ -5593,7 +5603,7 @@
       <c r="O22" s="45"/>
       <c r="P22" s="10"/>
     </row>
-    <row r="23" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="39">
       <c r="A23" s="1" t="s">
         <v>185</v>
       </c>
@@ -5604,7 +5614,7 @@
         <v>118</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E23" s="32" t="s">
         <v>140</v>
@@ -5629,9 +5639,9 @@
       <c r="O23" s="45"/>
       <c r="P23" s="10"/>
     </row>
-    <row r="24" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="39">
       <c r="A24" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B24" s="38" t="s">
         <v>148</v>
@@ -5640,13 +5650,13 @@
         <v>118</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E24" s="32" t="s">
         <v>108</v>
       </c>
       <c r="F24" s="40" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="G24" s="39">
         <v>42099</v>
@@ -5665,9 +5675,9 @@
       <c r="O24" s="45"/>
       <c r="P24" s="10"/>
     </row>
-    <row r="25" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="39">
       <c r="A25" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B25" s="38" t="s">
         <v>150</v>
@@ -5676,13 +5686,13 @@
         <v>118</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E25" s="32" t="s">
         <v>108</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="G25" s="39">
         <v>42099</v>
@@ -5704,9 +5714,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="52">
       <c r="A26" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B26" s="38" t="s">
         <v>151</v>
@@ -5715,13 +5725,13 @@
         <v>118</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E26" s="32" t="s">
         <v>108</v>
       </c>
       <c r="F26" s="40" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="G26" s="39">
         <v>42099</v>
@@ -5747,9 +5757,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="39">
       <c r="A27" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B27" s="38" t="s">
         <v>152</v>
@@ -5758,13 +5768,13 @@
         <v>118</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E27" s="32" t="s">
         <v>109</v>
       </c>
       <c r="F27" s="40" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G27" s="39">
         <v>42099</v>
@@ -5789,9 +5799,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="39">
       <c r="A28" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B28" s="38" t="s">
         <v>153</v>
@@ -5800,13 +5810,13 @@
         <v>118</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E28" s="32" t="s">
         <v>110</v>
       </c>
       <c r="F28" s="40" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G28" s="39">
         <v>42099</v>
@@ -5818,7 +5828,7 @@
         <v>62</v>
       </c>
       <c r="J28" s="45" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="K28" s="35" t="s">
         <v>33</v>
@@ -5833,28 +5843,29 @@
         <v>68</v>
       </c>
       <c r="O28" s="45" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="P28" s="10"/>
       <c r="T28" t="s">
         <v>35</v>
       </c>
       <c r="U28" s="31">
+        <f>COUNTIF(L2:L50,"*Major*")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="39">
       <c r="A29" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B29" s="38" t="s">
         <v>154</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>68</v>
+        <v>320</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E29" s="32" t="s">
         <v>126</v>
@@ -5882,27 +5893,28 @@
         <v>36</v>
       </c>
       <c r="U29" s="31">
+        <f>COUNTIF(L2:L50,"*Critical*")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="52">
       <c r="A30" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G30" s="39">
         <v>42099</v>
@@ -5924,21 +5936,22 @@
         <v>38</v>
       </c>
       <c r="U30" s="31">
+        <f>COUNTIF(L2:L50,"*Cosmetic*")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="39">
       <c r="A31" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>68</v>
+        <v>320</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E31" s="32" t="s">
         <v>127</v>
@@ -5963,27 +5976,27 @@
       <c r="O31" s="45"/>
       <c r="P31" s="10"/>
     </row>
-    <row r="32" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="83" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>68</v>
+        <v>320</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F32" s="40" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H32" s="42" t="s">
         <v>25</v>
@@ -5992,7 +6005,7 @@
         <v>62</v>
       </c>
       <c r="J32" s="45" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="K32" s="35" t="s">
         <v>33</v>
@@ -6007,11 +6020,11 @@
         <v>68</v>
       </c>
       <c r="O32" s="45" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="P32" s="10"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33" s="1"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6029,7 +6042,7 @@
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" s="1"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6047,7 +6060,7 @@
       <c r="O34" s="1"/>
       <c r="P34" s="10"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" s="1"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6065,7 +6078,7 @@
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" s="1"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6083,7 +6096,7 @@
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" s="1"/>
       <c r="B37" s="38"/>
       <c r="C37" s="3"/>
@@ -6101,7 +6114,7 @@
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" s="1"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6119,7 +6132,7 @@
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" s="1"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -6137,7 +6150,7 @@
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" s="1"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -6155,7 +6168,7 @@
       <c r="O40" s="1"/>
       <c r="P40" s="10"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" s="1"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -6173,7 +6186,7 @@
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="A42" s="1"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -6191,7 +6204,7 @@
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43" s="1"/>
       <c r="B43" s="38"/>
       <c r="C43" s="3"/>
@@ -6209,7 +6222,7 @@
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="A44" s="1"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -6227,7 +6240,7 @@
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45" s="1"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -6245,7 +6258,7 @@
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="A46" s="1"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -6263,7 +6276,7 @@
       <c r="O46" s="1"/>
       <c r="P46" s="10"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16">
       <c r="A47" s="1"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -6281,7 +6294,7 @@
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16">
       <c r="A48" s="1"/>
       <c r="B48" s="38"/>
       <c r="C48" s="3"/>
@@ -6299,7 +6312,7 @@
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="A49" s="1"/>
       <c r="B49" s="38"/>
       <c r="C49" s="3"/>
@@ -6317,7 +6330,7 @@
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="A50" s="1"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -6335,7 +6348,7 @@
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="A51" s="1"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -6353,7 +6366,7 @@
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="A52" s="1"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -6371,7 +6384,7 @@
       <c r="O52" s="1"/>
       <c r="P52" s="10"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="A53" s="1"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -6389,7 +6402,7 @@
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="E54" s="10"/>
       <c r="F54" s="11"/>
       <c r="G54" s="10"/>
@@ -6403,7 +6416,7 @@
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16">
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
       <c r="G55" s="10"/>
@@ -6417,7 +6430,7 @@
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16">
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
       <c r="G56" s="10"/>
@@ -6431,7 +6444,7 @@
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="E57" s="10"/>
       <c r="F57" s="11"/>
       <c r="G57" s="10"/>
@@ -6445,7 +6458,7 @@
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="E58" s="10"/>
       <c r="F58" s="11"/>
       <c r="G58" s="10"/>
@@ -6459,7 +6472,7 @@
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="E59" s="10"/>
       <c r="F59" s="11"/>
       <c r="G59" s="10"/>
@@ -6473,7 +6486,7 @@
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="E60" s="10"/>
       <c r="F60" s="11"/>
       <c r="G60" s="10"/>
@@ -6487,7 +6500,7 @@
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="E61" s="10"/>
       <c r="F61" s="11"/>
       <c r="G61" s="10"/>
@@ -6501,7 +6514,7 @@
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="E62" s="10"/>
       <c r="F62" s="11"/>
       <c r="G62" s="10"/>
@@ -6515,7 +6528,7 @@
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="E63" s="10"/>
       <c r="F63" s="11"/>
       <c r="G63" s="10"/>
@@ -6529,7 +6542,7 @@
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16">
       <c r="E64" s="10"/>
       <c r="F64" s="11"/>
       <c r="G64" s="10"/>
@@ -6543,7 +6556,7 @@
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
     </row>
-    <row r="65" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:16">
       <c r="E65" s="10"/>
       <c r="F65" s="11"/>
       <c r="G65" s="10"/>
@@ -6557,7 +6570,7 @@
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
     </row>
-    <row r="66" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:16">
       <c r="E66" s="10"/>
       <c r="F66" s="11"/>
       <c r="G66" s="10"/>
@@ -6571,7 +6584,7 @@
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
     </row>
-    <row r="67" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:16">
       <c r="E67" s="10"/>
       <c r="F67" s="11"/>
       <c r="G67" s="10"/>
@@ -6585,7 +6598,7 @@
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
     </row>
-    <row r="68" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:16">
       <c r="E68" s="10"/>
       <c r="F68" s="11"/>
       <c r="G68" s="10"/>
@@ -6599,7 +6612,7 @@
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
     </row>
-    <row r="69" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:16">
       <c r="E69" s="10"/>
       <c r="F69" s="11"/>
       <c r="G69" s="10"/>
@@ -6613,7 +6626,7 @@
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
     </row>
-    <row r="70" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:16">
       <c r="E70" s="10"/>
       <c r="F70" s="11"/>
       <c r="G70" s="10"/>
@@ -6627,7 +6640,7 @@
       <c r="O70" s="10"/>
       <c r="P70" s="10"/>
     </row>
-    <row r="71" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:16">
       <c r="E71" s="10"/>
       <c r="F71" s="11"/>
       <c r="G71" s="10"/>
@@ -6641,7 +6654,7 @@
       <c r="O71" s="10"/>
       <c r="P71" s="10"/>
     </row>
-    <row r="72" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:16">
       <c r="E72" s="10"/>
       <c r="F72" s="11"/>
       <c r="G72" s="10"/>
@@ -6655,7 +6668,7 @@
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
     </row>
-    <row r="73" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:16">
       <c r="E73" s="10"/>
       <c r="F73" s="11"/>
       <c r="G73" s="10"/>
@@ -6669,7 +6682,7 @@
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
     </row>
-    <row r="74" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:16">
       <c r="E74" s="10"/>
       <c r="F74" s="11"/>
       <c r="G74" s="10"/>
@@ -6683,7 +6696,7 @@
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
     </row>
-    <row r="75" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:16">
       <c r="E75" s="10"/>
       <c r="F75" s="11"/>
       <c r="G75" s="10"/>
@@ -6697,7 +6710,7 @@
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
     </row>
-    <row r="76" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:16">
       <c r="E76" s="10"/>
       <c r="F76" s="11"/>
       <c r="G76" s="10"/>
@@ -6711,7 +6724,7 @@
       <c r="O76" s="10"/>
       <c r="P76" s="10"/>
     </row>
-    <row r="77" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:16">
       <c r="E77" s="10"/>
       <c r="F77" s="11"/>
       <c r="G77" s="10"/>
@@ -6725,7 +6738,7 @@
       <c r="O77" s="10"/>
       <c r="P77" s="10"/>
     </row>
-    <row r="78" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:16">
       <c r="E78" s="10"/>
       <c r="F78" s="11"/>
       <c r="G78" s="10"/>
@@ -6739,7 +6752,7 @@
       <c r="O78" s="10"/>
       <c r="P78" s="10"/>
     </row>
-    <row r="79" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:16">
       <c r="E79" s="10"/>
       <c r="F79" s="11"/>
       <c r="G79" s="10"/>
@@ -6753,7 +6766,7 @@
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
     </row>
-    <row r="80" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:16">
       <c r="E80" s="10"/>
       <c r="F80" s="11"/>
       <c r="G80" s="10"/>
@@ -6767,7 +6780,7 @@
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
     </row>
-    <row r="81" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:16">
       <c r="E81" s="10"/>
       <c r="F81" s="11"/>
       <c r="G81" s="10"/>
@@ -6781,7 +6794,7 @@
       <c r="O81" s="10"/>
       <c r="P81" s="10"/>
     </row>
-    <row r="82" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:16">
       <c r="E82" s="10"/>
       <c r="F82" s="11"/>
       <c r="G82" s="10"/>
@@ -6795,7 +6808,7 @@
       <c r="O82" s="10"/>
       <c r="P82" s="10"/>
     </row>
-    <row r="83" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:16">
       <c r="E83" s="10"/>
       <c r="F83" s="11"/>
       <c r="G83" s="10"/>
@@ -6809,7 +6822,7 @@
       <c r="O83" s="10"/>
       <c r="P83" s="10"/>
     </row>
-    <row r="84" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:16">
       <c r="E84" s="10"/>
       <c r="F84" s="11"/>
       <c r="G84" s="10"/>
@@ -6823,7 +6836,7 @@
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
     </row>
-    <row r="85" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:16">
       <c r="E85" s="10"/>
       <c r="F85" s="11"/>
       <c r="G85" s="10"/>
@@ -6837,7 +6850,7 @@
       <c r="O85" s="10"/>
       <c r="P85" s="10"/>
     </row>
-    <row r="86" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:16">
       <c r="E86" s="10"/>
       <c r="F86" s="11"/>
       <c r="G86" s="10"/>
@@ -6851,7 +6864,7 @@
       <c r="O86" s="10"/>
       <c r="P86" s="10"/>
     </row>
-    <row r="87" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:16">
       <c r="E87" s="10"/>
       <c r="F87" s="11"/>
       <c r="G87" s="10"/>
@@ -6865,7 +6878,7 @@
       <c r="O87" s="10"/>
       <c r="P87" s="10"/>
     </row>
-    <row r="88" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:16">
       <c r="E88" s="10"/>
       <c r="F88" s="11"/>
       <c r="G88" s="10"/>
@@ -6879,7 +6892,7 @@
       <c r="O88" s="10"/>
       <c r="P88" s="10"/>
     </row>
-    <row r="89" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:16">
       <c r="E89" s="10"/>
       <c r="F89" s="11"/>
       <c r="G89" s="10"/>
@@ -6893,7 +6906,7 @@
       <c r="O89" s="10"/>
       <c r="P89" s="10"/>
     </row>
-    <row r="90" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:16">
       <c r="E90" s="10"/>
       <c r="F90" s="11"/>
       <c r="G90" s="10"/>
@@ -6907,7 +6920,7 @@
       <c r="O90" s="10"/>
       <c r="P90" s="10"/>
     </row>
-    <row r="91" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:16">
       <c r="E91" s="10"/>
       <c r="F91" s="11"/>
       <c r="G91" s="10"/>
@@ -6921,7 +6934,7 @@
       <c r="O91" s="10"/>
       <c r="P91" s="10"/>
     </row>
-    <row r="92" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:16">
       <c r="E92" s="10"/>
       <c r="F92" s="11"/>
       <c r="G92" s="10"/>
@@ -6935,7 +6948,7 @@
       <c r="O92" s="10"/>
       <c r="P92" s="10"/>
     </row>
-    <row r="93" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:16">
       <c r="E93" s="10"/>
       <c r="F93" s="11"/>
       <c r="G93" s="10"/>
@@ -6949,7 +6962,7 @@
       <c r="O93" s="10"/>
       <c r="P93" s="10"/>
     </row>
-    <row r="94" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:16">
       <c r="E94" s="10"/>
       <c r="F94" s="11"/>
       <c r="G94" s="10"/>
@@ -6963,7 +6976,7 @@
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
     </row>
-    <row r="95" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:16">
       <c r="E95" s="10"/>
       <c r="F95" s="11"/>
       <c r="G95" s="10"/>
@@ -6977,7 +6990,7 @@
       <c r="O95" s="10"/>
       <c r="P95" s="10"/>
     </row>
-    <row r="96" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:16">
       <c r="E96" s="10"/>
       <c r="F96" s="11"/>
       <c r="G96" s="10"/>
@@ -6991,7 +7004,7 @@
       <c r="O96" s="10"/>
       <c r="P96" s="10"/>
     </row>
-    <row r="97" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:16">
       <c r="E97" s="10"/>
       <c r="F97" s="11"/>
       <c r="G97" s="10"/>
@@ -7005,7 +7018,7 @@
       <c r="O97" s="10"/>
       <c r="P97" s="10"/>
     </row>
-    <row r="98" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:16">
       <c r="E98" s="10"/>
       <c r="F98" s="11"/>
       <c r="G98" s="10"/>
@@ -7019,7 +7032,7 @@
       <c r="O98" s="10"/>
       <c r="P98" s="10"/>
     </row>
-    <row r="99" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:16">
       <c r="E99" s="10"/>
       <c r="F99" s="11"/>
       <c r="G99" s="10"/>
@@ -7033,7 +7046,7 @@
       <c r="O99" s="10"/>
       <c r="P99" s="10"/>
     </row>
-    <row r="100" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:16">
       <c r="E100" s="10"/>
       <c r="F100" s="11"/>
       <c r="G100" s="10"/>
@@ -7047,7 +7060,7 @@
       <c r="O100" s="10"/>
       <c r="P100" s="10"/>
     </row>
-    <row r="101" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:16">
       <c r="E101" s="10"/>
       <c r="F101" s="11"/>
       <c r="G101" s="10"/>
@@ -7061,7 +7074,7 @@
       <c r="O101" s="10"/>
       <c r="P101" s="10"/>
     </row>
-    <row r="102" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:16">
       <c r="E102" s="10"/>
       <c r="F102" s="11"/>
       <c r="G102" s="10"/>
@@ -7075,7 +7088,7 @@
       <c r="O102" s="10"/>
       <c r="P102" s="10"/>
     </row>
-    <row r="103" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:16">
       <c r="E103" s="10"/>
       <c r="F103" s="11"/>
       <c r="G103" s="10"/>
@@ -7089,7 +7102,7 @@
       <c r="O103" s="10"/>
       <c r="P103" s="10"/>
     </row>
-    <row r="104" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:16">
       <c r="E104" s="10"/>
       <c r="F104" s="11"/>
       <c r="G104" s="10"/>
@@ -7103,7 +7116,7 @@
       <c r="O104" s="10"/>
       <c r="P104" s="10"/>
     </row>
-    <row r="105" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:16">
       <c r="E105" s="10"/>
       <c r="F105" s="11"/>
       <c r="G105" s="10"/>
@@ -7117,7 +7130,7 @@
       <c r="O105" s="10"/>
       <c r="P105" s="10"/>
     </row>
-    <row r="106" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:16">
       <c r="E106" s="10"/>
       <c r="F106" s="11"/>
       <c r="G106" s="10"/>
@@ -7131,7 +7144,7 @@
       <c r="O106" s="10"/>
       <c r="P106" s="10"/>
     </row>
-    <row r="107" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:16">
       <c r="E107" s="10"/>
       <c r="F107" s="11"/>
       <c r="G107" s="10"/>
@@ -7145,7 +7158,7 @@
       <c r="O107" s="10"/>
       <c r="P107" s="10"/>
     </row>
-    <row r="108" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:16">
       <c r="E108" s="10"/>
       <c r="F108" s="11"/>
       <c r="G108" s="10"/>
@@ -7159,7 +7172,7 @@
       <c r="O108" s="10"/>
       <c r="P108" s="10"/>
     </row>
-    <row r="109" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:16">
       <c r="E109" s="10"/>
       <c r="F109" s="11"/>
       <c r="G109" s="10"/>
@@ -7173,7 +7186,7 @@
       <c r="O109" s="10"/>
       <c r="P109" s="10"/>
     </row>
-    <row r="110" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:16">
       <c r="E110" s="10"/>
       <c r="F110" s="11"/>
       <c r="G110" s="10"/>
@@ -7187,7 +7200,7 @@
       <c r="O110" s="10"/>
       <c r="P110" s="10"/>
     </row>
-    <row r="111" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:16">
       <c r="E111" s="10"/>
       <c r="F111" s="11"/>
       <c r="G111" s="10"/>
@@ -7201,7 +7214,7 @@
       <c r="O111" s="10"/>
       <c r="P111" s="10"/>
     </row>
-    <row r="112" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:16">
       <c r="E112" s="10"/>
       <c r="F112" s="11"/>
       <c r="G112" s="10"/>
@@ -7215,7 +7228,7 @@
       <c r="O112" s="10"/>
       <c r="P112" s="10"/>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:16">
       <c r="E113" s="10"/>
       <c r="F113" s="11"/>
       <c r="G113" s="10"/>
@@ -7229,7 +7242,7 @@
       <c r="O113" s="10"/>
       <c r="P113" s="10"/>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:16">
       <c r="E114" s="10"/>
       <c r="F114" s="11"/>
       <c r="G114" s="10"/>
@@ -7243,7 +7256,7 @@
       <c r="O114" s="10"/>
       <c r="P114" s="10"/>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:16">
       <c r="E115" s="10"/>
       <c r="F115" s="11"/>
       <c r="G115" s="10"/>
@@ -7257,7 +7270,7 @@
       <c r="O115" s="10"/>
       <c r="P115" s="10"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:16">
       <c r="E116" s="10"/>
       <c r="F116" s="11"/>
       <c r="G116" s="10"/>
@@ -7271,7 +7284,7 @@
       <c r="O116" s="10"/>
       <c r="P116" s="10"/>
     </row>
-    <row r="117" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:16">
       <c r="E117" s="10"/>
       <c r="F117" s="11"/>
       <c r="G117" s="10"/>
@@ -7285,7 +7298,7 @@
       <c r="O117" s="10"/>
       <c r="P117" s="10"/>
     </row>
-    <row r="118" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:16">
       <c r="E118" s="10"/>
       <c r="F118" s="11"/>
       <c r="G118" s="10"/>
@@ -7299,7 +7312,7 @@
       <c r="O118" s="10"/>
       <c r="P118" s="10"/>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:16">
       <c r="E119" s="10"/>
       <c r="F119" s="11"/>
       <c r="G119" s="10"/>
@@ -7313,7 +7326,7 @@
       <c r="O119" s="10"/>
       <c r="P119" s="10"/>
     </row>
-    <row r="120" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:16">
       <c r="E120" s="10"/>
       <c r="F120" s="11"/>
       <c r="G120" s="10"/>
@@ -7327,7 +7340,7 @@
       <c r="O120" s="10"/>
       <c r="P120" s="10"/>
     </row>
-    <row r="121" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:16">
       <c r="E121" s="10"/>
       <c r="F121" s="11"/>
       <c r="G121" s="10"/>
@@ -7341,7 +7354,7 @@
       <c r="O121" s="10"/>
       <c r="P121" s="10"/>
     </row>
-    <row r="122" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:16">
       <c r="E122" s="10"/>
       <c r="F122" s="11"/>
       <c r="G122" s="10"/>
@@ -7355,7 +7368,7 @@
       <c r="O122" s="10"/>
       <c r="P122" s="10"/>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:16">
       <c r="E123" s="10"/>
       <c r="F123" s="11"/>
       <c r="G123" s="10"/>
@@ -7369,7 +7382,7 @@
       <c r="O123" s="10"/>
       <c r="P123" s="10"/>
     </row>
-    <row r="124" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:16">
       <c r="E124" s="10"/>
       <c r="F124" s="11"/>
       <c r="G124" s="10"/>
@@ -7383,7 +7396,7 @@
       <c r="O124" s="10"/>
       <c r="P124" s="10"/>
     </row>
-    <row r="125" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:16">
       <c r="E125" s="10"/>
       <c r="F125" s="11"/>
       <c r="G125" s="10"/>
@@ -7397,7 +7410,7 @@
       <c r="O125" s="10"/>
       <c r="P125" s="10"/>
     </row>
-    <row r="126" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="5:16">
       <c r="E126" s="10"/>
       <c r="F126" s="11"/>
       <c r="G126" s="10"/>
@@ -7411,7 +7424,7 @@
       <c r="O126" s="10"/>
       <c r="P126" s="10"/>
     </row>
-    <row r="127" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="5:16">
       <c r="E127" s="10"/>
       <c r="F127" s="11"/>
       <c r="G127" s="10"/>
@@ -7425,7 +7438,7 @@
       <c r="O127" s="10"/>
       <c r="P127" s="10"/>
     </row>
-    <row r="128" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="5:16">
       <c r="E128" s="10"/>
       <c r="F128" s="11"/>
       <c r="G128" s="10"/>
@@ -7439,7 +7452,7 @@
       <c r="O128" s="10"/>
       <c r="P128" s="10"/>
     </row>
-    <row r="129" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:16">
       <c r="E129" s="10"/>
       <c r="F129" s="11"/>
       <c r="G129" s="10"/>
@@ -7453,7 +7466,7 @@
       <c r="O129" s="10"/>
       <c r="P129" s="10"/>
     </row>
-    <row r="130" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:16">
       <c r="E130" s="10"/>
       <c r="F130" s="11"/>
       <c r="G130" s="10"/>
@@ -7467,7 +7480,7 @@
       <c r="O130" s="10"/>
       <c r="P130" s="10"/>
     </row>
-    <row r="131" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:16">
       <c r="E131" s="10"/>
       <c r="F131" s="11"/>
       <c r="G131" s="10"/>
@@ -7481,7 +7494,7 @@
       <c r="O131" s="10"/>
       <c r="P131" s="10"/>
     </row>
-    <row r="132" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="5:16">
       <c r="E132" s="10"/>
       <c r="F132" s="11"/>
       <c r="G132" s="10"/>
@@ -7495,7 +7508,7 @@
       <c r="O132" s="10"/>
       <c r="P132" s="10"/>
     </row>
-    <row r="133" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:16">
       <c r="E133" s="10"/>
       <c r="F133" s="11"/>
       <c r="G133" s="10"/>
@@ -7509,7 +7522,7 @@
       <c r="O133" s="10"/>
       <c r="P133" s="10"/>
     </row>
-    <row r="134" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:16">
       <c r="E134" s="10"/>
       <c r="F134" s="11"/>
       <c r="G134" s="10"/>
@@ -7523,7 +7536,7 @@
       <c r="O134" s="10"/>
       <c r="P134" s="10"/>
     </row>
-    <row r="135" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:16">
       <c r="E135" s="10"/>
       <c r="F135" s="11"/>
       <c r="G135" s="10"/>
@@ -7537,7 +7550,7 @@
       <c r="O135" s="10"/>
       <c r="P135" s="10"/>
     </row>
-    <row r="136" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:16">
       <c r="E136" s="10"/>
       <c r="F136" s="11"/>
       <c r="G136" s="10"/>
@@ -7551,7 +7564,7 @@
       <c r="O136" s="10"/>
       <c r="P136" s="10"/>
     </row>
-    <row r="137" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:16">
       <c r="E137" s="10"/>
       <c r="F137" s="11"/>
       <c r="G137" s="10"/>
@@ -7565,7 +7578,7 @@
       <c r="O137" s="10"/>
       <c r="P137" s="10"/>
     </row>
-    <row r="138" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:16">
       <c r="E138" s="10"/>
       <c r="F138" s="11"/>
       <c r="G138" s="10"/>
@@ -7579,7 +7592,7 @@
       <c r="O138" s="10"/>
       <c r="P138" s="10"/>
     </row>
-    <row r="139" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="5:16">
       <c r="E139" s="10"/>
       <c r="F139" s="11"/>
       <c r="G139" s="10"/>
@@ -7593,7 +7606,7 @@
       <c r="O139" s="10"/>
       <c r="P139" s="10"/>
     </row>
-    <row r="140" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:16">
       <c r="E140" s="10"/>
       <c r="F140" s="11"/>
       <c r="G140" s="10"/>
@@ -7607,7 +7620,7 @@
       <c r="O140" s="10"/>
       <c r="P140" s="10"/>
     </row>
-    <row r="141" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="5:16">
       <c r="E141" s="10"/>
       <c r="F141" s="11"/>
       <c r="G141" s="10"/>
@@ -7621,7 +7634,7 @@
       <c r="O141" s="10"/>
       <c r="P141" s="10"/>
     </row>
-    <row r="142" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="5:16">
       <c r="E142" s="10"/>
       <c r="F142" s="11"/>
       <c r="G142" s="10"/>
@@ -7635,7 +7648,7 @@
       <c r="O142" s="10"/>
       <c r="P142" s="10"/>
     </row>
-    <row r="143" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="5:16">
       <c r="E143" s="10"/>
       <c r="F143" s="11"/>
       <c r="G143" s="10"/>
@@ -7649,7 +7662,7 @@
       <c r="O143" s="10"/>
       <c r="P143" s="10"/>
     </row>
-    <row r="144" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="5:16">
       <c r="E144" s="10"/>
       <c r="F144" s="11"/>
       <c r="G144" s="10"/>
@@ -7663,7 +7676,7 @@
       <c r="O144" s="10"/>
       <c r="P144" s="10"/>
     </row>
-    <row r="145" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:16">
       <c r="E145" s="10"/>
       <c r="F145" s="11"/>
       <c r="G145" s="10"/>
@@ -7677,7 +7690,7 @@
       <c r="O145" s="10"/>
       <c r="P145" s="10"/>
     </row>
-    <row r="146" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:16">
       <c r="E146" s="10"/>
       <c r="F146" s="11"/>
       <c r="G146" s="10"/>
@@ -7691,7 +7704,7 @@
       <c r="O146" s="10"/>
       <c r="P146" s="10"/>
     </row>
-    <row r="147" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="5:16">
       <c r="E147" s="10"/>
       <c r="F147" s="11"/>
       <c r="G147" s="10"/>
@@ -7705,7 +7718,7 @@
       <c r="O147" s="10"/>
       <c r="P147" s="10"/>
     </row>
-    <row r="148" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="5:16">
       <c r="E148" s="10"/>
       <c r="F148" s="11"/>
       <c r="G148" s="10"/>
@@ -7719,7 +7732,7 @@
       <c r="O148" s="10"/>
       <c r="P148" s="10"/>
     </row>
-    <row r="149" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="5:16">
       <c r="E149" s="10"/>
       <c r="F149" s="11"/>
       <c r="G149" s="10"/>
@@ -7733,7 +7746,7 @@
       <c r="O149" s="10"/>
       <c r="P149" s="10"/>
     </row>
-    <row r="150" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="5:16">
       <c r="E150" s="10"/>
       <c r="F150" s="11"/>
       <c r="G150" s="10"/>
@@ -7747,7 +7760,7 @@
       <c r="O150" s="10"/>
       <c r="P150" s="10"/>
     </row>
-    <row r="151" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="5:16">
       <c r="E151" s="10"/>
       <c r="F151" s="11"/>
       <c r="G151" s="10"/>
@@ -7761,7 +7774,7 @@
       <c r="O151" s="10"/>
       <c r="P151" s="10"/>
     </row>
-    <row r="152" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:16">
       <c r="E152" s="10"/>
       <c r="F152" s="11"/>
       <c r="G152" s="10"/>
@@ -7775,7 +7788,7 @@
       <c r="O152" s="10"/>
       <c r="P152" s="10"/>
     </row>
-    <row r="153" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="5:16">
       <c r="E153" s="10"/>
       <c r="F153" s="11"/>
       <c r="G153" s="10"/>
@@ -7789,7 +7802,7 @@
       <c r="O153" s="10"/>
       <c r="P153" s="10"/>
     </row>
-    <row r="154" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:16">
       <c r="E154" s="10"/>
       <c r="F154" s="11"/>
       <c r="G154" s="10"/>
@@ -7803,7 +7816,7 @@
       <c r="O154" s="10"/>
       <c r="P154" s="10"/>
     </row>
-    <row r="155" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="5:16">
       <c r="E155" s="10"/>
       <c r="F155" s="11"/>
       <c r="G155" s="10"/>
@@ -7817,7 +7830,7 @@
       <c r="O155" s="10"/>
       <c r="P155" s="10"/>
     </row>
-    <row r="156" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="5:16">
       <c r="E156" s="10"/>
       <c r="F156" s="11"/>
       <c r="G156" s="10"/>
@@ -7831,7 +7844,7 @@
       <c r="O156" s="10"/>
       <c r="P156" s="10"/>
     </row>
-    <row r="157" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="5:16">
       <c r="E157" s="10"/>
       <c r="F157" s="11"/>
       <c r="G157" s="10"/>
@@ -7845,7 +7858,7 @@
       <c r="O157" s="10"/>
       <c r="P157" s="10"/>
     </row>
-    <row r="158" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="5:16">
       <c r="E158" s="10"/>
       <c r="F158" s="11"/>
       <c r="G158" s="10"/>
@@ -7859,7 +7872,7 @@
       <c r="O158" s="10"/>
       <c r="P158" s="10"/>
     </row>
-    <row r="159" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="5:16">
       <c r="E159" s="10"/>
       <c r="F159" s="11"/>
       <c r="G159" s="10"/>
@@ -7873,7 +7886,7 @@
       <c r="O159" s="10"/>
       <c r="P159" s="10"/>
     </row>
-    <row r="160" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="5:16">
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>
       <c r="G160" s="10"/>
@@ -7887,7 +7900,7 @@
       <c r="O160" s="10"/>
       <c r="P160" s="10"/>
     </row>
-    <row r="161" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="5:16">
       <c r="E161" s="10"/>
       <c r="F161" s="10"/>
       <c r="G161" s="10"/>
@@ -7924,7 +7937,7 @@
           <x14:formula1>
             <xm:f>Settings!$B$4:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F5 F33:F159</xm:sqref>
+          <xm:sqref>F33:F159 F2:F7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -7949,27 +7962,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF99FF99"/>
   </sheetPr>
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" customWidth="1"/>
-    <col min="4" max="5" width="24.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="9" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
+    <col min="4" max="5" width="24.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="9" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="23">
       <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
@@ -7995,7 +8008,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="98">
       <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
@@ -8009,7 +8022,7 @@
         <v>65</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F2" s="1"/>
       <c r="H2" s="27" t="s">
@@ -8021,7 +8034,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="112">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -8029,13 +8042,13 @@
         <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
@@ -8046,7 +8059,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="112">
       <c r="A4" s="1" t="s">
         <v>76</v>
       </c>
@@ -8054,13 +8067,13 @@
         <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -8071,7 +8084,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="126">
       <c r="A5" s="1" t="s">
         <v>77</v>
       </c>
@@ -8079,13 +8092,13 @@
         <v>103</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -8096,7 +8109,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="98">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
@@ -8110,7 +8123,7 @@
         <v>67</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -8121,7 +8134,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="98">
       <c r="A7" s="1" t="s">
         <v>79</v>
       </c>
@@ -8135,7 +8148,7 @@
         <v>67</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -8146,7 +8159,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="98">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -8157,10 +8170,10 @@
         <v>194</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -8171,7 +8184,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="98">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -8182,10 +8195,10 @@
         <v>194</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -8196,7 +8209,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="98">
       <c r="A10" s="1" t="s">
         <v>83</v>
       </c>
@@ -8207,10 +8220,10 @@
         <v>194</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -8221,7 +8234,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="126">
       <c r="A11" s="1" t="s">
         <v>84</v>
       </c>
@@ -8235,7 +8248,7 @@
         <v>70</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -8246,7 +8259,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="71" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>89</v>
       </c>
@@ -8260,7 +8273,7 @@
         <v>70</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -8271,7 +8284,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="126">
       <c r="A13" s="1" t="s">
         <v>122</v>
       </c>
@@ -8285,7 +8298,7 @@
         <v>73</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -8296,7 +8309,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="126">
       <c r="A14" s="1" t="s">
         <v>123</v>
       </c>
@@ -8310,7 +8323,7 @@
         <v>73</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -8321,7 +8334,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="126">
       <c r="A15" s="1" t="s">
         <v>124</v>
       </c>
@@ -8329,13 +8342,13 @@
         <v>128</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -8346,7 +8359,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="112">
       <c r="A16" s="1" t="s">
         <v>125</v>
       </c>
@@ -8360,7 +8373,7 @@
         <v>82</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -8371,7 +8384,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="112">
       <c r="A17" s="1" t="s">
         <v>136</v>
       </c>
@@ -8385,7 +8398,7 @@
         <v>82</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -8396,7 +8409,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="98">
       <c r="A18" s="1" t="s">
         <v>137</v>
       </c>
@@ -8410,7 +8423,7 @@
         <v>90</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -8421,7 +8434,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="98">
       <c r="A19" s="1" t="s">
         <v>138</v>
       </c>
@@ -8435,7 +8448,7 @@
         <v>130</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -8446,7 +8459,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="112">
       <c r="A20" s="1" t="s">
         <v>139</v>
       </c>
@@ -8460,10 +8473,10 @@
         <v>132</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="98">
       <c r="A21" s="1" t="s">
         <v>156</v>
       </c>
@@ -8477,10 +8490,10 @@
         <v>133</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="98">
       <c r="A22" s="1" t="s">
         <v>157</v>
       </c>
@@ -8494,10 +8507,10 @@
         <v>134</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="84">
       <c r="A23" s="1" t="s">
         <v>158</v>
       </c>
@@ -8511,15 +8524,15 @@
         <v>144</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="84">
       <c r="A24" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>207</v>
@@ -8528,15 +8541,15 @@
         <v>145</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="84">
       <c r="A25" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>208</v>
@@ -8545,15 +8558,15 @@
         <v>146</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="84">
       <c r="A26" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>209</v>
@@ -8562,15 +8575,15 @@
         <v>147</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="99.75" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="78">
       <c r="A27" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C27" s="38" t="s">
         <v>210</v>
@@ -8579,18 +8592,18 @@
         <v>163</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="114" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="91">
       <c r="A28" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D28" s="32" t="s">
         <v>186</v>
@@ -8599,12 +8612,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="114" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="91">
       <c r="A29" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C29" s="38" t="s">
         <v>211</v>
@@ -8613,201 +8626,201 @@
         <v>162</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="42">
       <c r="A30" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="56">
+      <c r="A31" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>317</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="C31" s="32" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E31" s="32" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="42">
       <c r="A32" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E32" s="32" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="32"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="32"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="3"/>
       <c r="D35" s="1"/>
       <c r="E35" s="32"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="3"/>
       <c r="D36" s="1"/>
       <c r="E36" s="32"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="32"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="32"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="32"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="32"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="3"/>
       <c r="D41" s="1"/>
       <c r="E41" s="32"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="38"/>
       <c r="D42" s="1"/>
       <c r="E42" s="32"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="32"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="32"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="32"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="32"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="3"/>
       <c r="D47" s="1"/>
       <c r="E47" s="32"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="38"/>
       <c r="D48" s="1"/>
       <c r="E48" s="32"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="32"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="32"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="32"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="32"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="3"/>
@@ -8833,14 +8846,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -8854,7 +8867,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="25" t="s">
         <v>23</v>
       </c>
@@ -8868,7 +8881,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="23" t="s">
         <v>24</v>
       </c>
@@ -8882,7 +8895,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="24" t="s">
         <v>25</v>
       </c>
@@ -8896,12 +8909,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="F7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="F8" t="s">
         <v>38</v>
       </c>
@@ -8917,15 +8930,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -9039,21 +9043,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9069,11 +9074,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Final report/Receipt Page/Testing Spreadsheet v1.0 OrderReceiptPage.xlsx
+++ b/Final report/Receipt Page/Testing Spreadsheet v1.0 OrderReceiptPage.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonnie\Documents\Software Development\CSC7056 Software Testing &amp; Verification\Group Project\Software-Testing-And-Verification\Final report\Receipt Page\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24840" windowHeight="15600" firstSheet="1" activeTab="2"/>
@@ -17,7 +22,7 @@
   <definedNames>
     <definedName name="_Toc407532261" localSheetId="0">Reqs!$B$2</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +37,7 @@
     <author>qubsys</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +75,7 @@
     <author>qubsys</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3619,13 +3624,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3715,19 +3720,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3742,11 +3747,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2146790744"/>
-        <c:axId val="2103177032"/>
+        <c:axId val="-1455274208"/>
+        <c:axId val="-1455280192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2146790744"/>
+        <c:axId val="-1455274208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3756,7 +3761,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2103177032"/>
+        <c:crossAx val="-1455280192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3764,7 +3769,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2103177032"/>
+        <c:axId val="-1455280192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3775,7 +3780,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146790744"/>
+        <c:crossAx val="-1455274208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4150,12 +4155,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4163,7 +4168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4183,7 +4188,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor rgb="FF023FAE"/>
   </sheetPr>
   <dimension ref="A1:I53"/>
@@ -4192,14 +4197,14 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="2" max="2" width="47.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25" customHeight="1">
+    <row r="1" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
@@ -4213,7 +4218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="35.5" customHeight="1">
+    <row r="2" spans="1:9" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>91</v>
       </c>
@@ -4230,7 +4235,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="35.5" customHeight="1">
+    <row r="3" spans="1:9" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>92</v>
       </c>
@@ -4245,7 +4250,7 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="28">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>93</v>
       </c>
@@ -4262,7 +4267,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="23">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>94</v>
       </c>
@@ -4279,7 +4284,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="28">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>95</v>
       </c>
@@ -4296,7 +4301,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="28">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
         <v>96</v>
       </c>
@@ -4313,7 +4318,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="28">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
         <v>97</v>
       </c>
@@ -4330,7 +4335,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>98</v>
       </c>
@@ -4344,7 +4349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="28">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>99</v>
       </c>
@@ -4358,7 +4363,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>100</v>
       </c>
@@ -4372,7 +4377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="42">
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>101</v>
       </c>
@@ -4386,7 +4391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="28">
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>111</v>
       </c>
@@ -4400,7 +4405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>225</v>
       </c>
@@ -4414,7 +4419,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="42">
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>234</v>
       </c>
@@ -4428,227 +4433,227 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
       <c r="B19" s="32"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
       <c r="B20" s="32"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="37"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="37"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="32"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="32"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="32"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="32"/>
       <c r="B33" s="32"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="32"/>
       <c r="B34" s="32"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="32"/>
       <c r="B35" s="37"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="32"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="32"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="32"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="32"/>
       <c r="B39" s="32"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="32"/>
       <c r="B40" s="32"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="32"/>
       <c r="B41" s="37"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="32"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="32"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="32"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="32"/>
       <c r="B45" s="32"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="32"/>
       <c r="B46" s="32"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="32"/>
       <c r="B47" s="37"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="32"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="32"/>
       <c r="B49" s="32"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="32"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="32"/>
       <c r="B51" s="32"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="32"/>
       <c r="B52" s="32"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="32"/>
       <c r="B53" s="37"/>
       <c r="C53" s="1"/>
@@ -4678,35 +4683,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:Z161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="J3" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="32.5" customWidth="1"/>
-    <col min="5" max="6" width="18.5" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="5" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" customWidth="1"/>
-    <col min="10" max="10" width="29.5" customWidth="1"/>
-    <col min="12" max="12" width="11.5" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" customWidth="1"/>
-    <col min="15" max="15" width="65.6640625" customWidth="1"/>
-    <col min="16" max="16" width="16.6640625" customWidth="1"/>
-    <col min="20" max="20" width="13.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="29.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="65.7109375" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="26">
+    <row r="1" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
@@ -4754,7 +4759,7 @@
       </c>
       <c r="P1" s="19"/>
     </row>
-    <row r="2" spans="1:26" ht="39">
+    <row r="2" spans="1:26" ht="57" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>164</v>
       </c>
@@ -4793,7 +4798,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="65">
+    <row r="3" spans="1:26" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>165</v>
       </c>
@@ -4832,7 +4837,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="65">
+    <row r="4" spans="1:26" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>166</v>
       </c>
@@ -4871,7 +4876,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="65">
+    <row r="5" spans="1:26" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>167</v>
       </c>
@@ -4919,7 +4924,7 @@
       </c>
       <c r="P5" s="10"/>
     </row>
-    <row r="6" spans="1:26" ht="65">
+    <row r="6" spans="1:26" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>168</v>
       </c>
@@ -4955,7 +4960,7 @@
       <c r="O6" s="44"/>
       <c r="P6" s="10"/>
     </row>
-    <row r="7" spans="1:26" ht="52">
+    <row r="7" spans="1:26" ht="57" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>169</v>
       </c>
@@ -4994,7 +4999,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="52">
+    <row r="8" spans="1:26" ht="57" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>170</v>
       </c>
@@ -5037,7 +5042,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="52">
+    <row r="9" spans="1:26" ht="57" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>171</v>
       </c>
@@ -5080,7 +5085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="52">
+    <row r="10" spans="1:26" ht="57" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>172</v>
       </c>
@@ -5135,7 +5140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="76" customHeight="1">
+    <row r="11" spans="1:26" ht="75.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>173</v>
       </c>
@@ -5183,7 +5188,7 @@
       </c>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" spans="1:26" ht="52">
+    <row r="12" spans="1:26" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>174</v>
       </c>
@@ -5219,7 +5224,7 @@
       <c r="O12" s="44"/>
       <c r="P12" s="10"/>
     </row>
-    <row r="13" spans="1:26" ht="52">
+    <row r="13" spans="1:26" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>175</v>
       </c>
@@ -5255,7 +5260,7 @@
       <c r="O13" s="45"/>
       <c r="P13" s="10"/>
     </row>
-    <row r="14" spans="1:26" ht="52">
+    <row r="14" spans="1:26" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>176</v>
       </c>
@@ -5291,7 +5296,7 @@
       <c r="O14" s="45"/>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" spans="1:26" ht="52">
+    <row r="15" spans="1:26" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>177</v>
       </c>
@@ -5327,7 +5332,7 @@
       <c r="O15" s="45"/>
       <c r="P15" s="10"/>
     </row>
-    <row r="16" spans="1:26" ht="39">
+    <row r="16" spans="1:26" ht="57" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>178</v>
       </c>
@@ -5363,7 +5368,7 @@
       <c r="O16" s="45"/>
       <c r="P16" s="10"/>
     </row>
-    <row r="17" spans="1:21" ht="52">
+    <row r="17" spans="1:21" ht="57" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>179</v>
       </c>
@@ -5411,7 +5416,7 @@
       </c>
       <c r="P17" s="10"/>
     </row>
-    <row r="18" spans="1:21" ht="52">
+    <row r="18" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>180</v>
       </c>
@@ -5447,7 +5452,7 @@
       <c r="O18" s="45"/>
       <c r="P18" s="10"/>
     </row>
-    <row r="19" spans="1:21" ht="39">
+    <row r="19" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>181</v>
       </c>
@@ -5483,7 +5488,7 @@
       <c r="O19" s="45"/>
       <c r="P19" s="10"/>
     </row>
-    <row r="20" spans="1:21" ht="39">
+    <row r="20" spans="1:21" ht="57" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>182</v>
       </c>
@@ -5531,7 +5536,7 @@
       </c>
       <c r="P20" s="10"/>
     </row>
-    <row r="21" spans="1:21" ht="39">
+    <row r="21" spans="1:21" ht="57" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>183</v>
       </c>
@@ -5567,7 +5572,7 @@
       <c r="O21" s="45"/>
       <c r="P21" s="10"/>
     </row>
-    <row r="22" spans="1:21" ht="39">
+    <row r="22" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>184</v>
       </c>
@@ -5603,7 +5608,7 @@
       <c r="O22" s="45"/>
       <c r="P22" s="10"/>
     </row>
-    <row r="23" spans="1:21" ht="39">
+    <row r="23" spans="1:21" ht="57" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>185</v>
       </c>
@@ -5639,7 +5644,7 @@
       <c r="O23" s="45"/>
       <c r="P23" s="10"/>
     </row>
-    <row r="24" spans="1:21" ht="39">
+    <row r="24" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>223</v>
       </c>
@@ -5675,7 +5680,7 @@
       <c r="O24" s="45"/>
       <c r="P24" s="10"/>
     </row>
-    <row r="25" spans="1:21" ht="39">
+    <row r="25" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>236</v>
       </c>
@@ -5714,7 +5719,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="52">
+    <row r="26" spans="1:21" ht="57" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>237</v>
       </c>
@@ -5757,7 +5762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="39">
+    <row r="27" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>252</v>
       </c>
@@ -5796,10 +5801,11 @@
         <v>57</v>
       </c>
       <c r="U27" s="31">
+        <f>COUNTIF(L2:L100,"*MODERATE*")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="39">
+    <row r="28" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>253</v>
       </c>
@@ -5854,7 +5860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="39">
+    <row r="29" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>276</v>
       </c>
@@ -5897,7 +5903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="52">
+    <row r="30" spans="1:21" ht="57" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>282</v>
       </c>
@@ -5940,7 +5946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="39">
+    <row r="31" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>283</v>
       </c>
@@ -5976,7 +5982,7 @@
       <c r="O31" s="45"/>
       <c r="P31" s="10"/>
     </row>
-    <row r="32" spans="1:21" ht="83" customHeight="1">
+    <row r="32" spans="1:21" ht="83.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>307</v>
       </c>
@@ -6024,7 +6030,7 @@
       </c>
       <c r="P32" s="10"/>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6042,7 +6048,7 @@
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6060,7 +6066,7 @@
       <c r="O34" s="1"/>
       <c r="P34" s="10"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6078,7 +6084,7 @@
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6096,7 +6102,7 @@
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="38"/>
       <c r="C37" s="3"/>
@@ -6114,7 +6120,7 @@
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6132,7 +6138,7 @@
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -6150,7 +6156,7 @@
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -6168,7 +6174,7 @@
       <c r="O40" s="1"/>
       <c r="P40" s="10"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -6186,7 +6192,7 @@
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -6204,7 +6210,7 @@
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="38"/>
       <c r="C43" s="3"/>
@@ -6222,7 +6228,7 @@
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -6240,7 +6246,7 @@
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -6258,7 +6264,7 @@
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -6276,7 +6282,7 @@
       <c r="O46" s="1"/>
       <c r="P46" s="10"/>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -6294,7 +6300,7 @@
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="38"/>
       <c r="C48" s="3"/>
@@ -6312,7 +6318,7 @@
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="38"/>
       <c r="C49" s="3"/>
@@ -6330,7 +6336,7 @@
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -6348,7 +6354,7 @@
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -6366,7 +6372,7 @@
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -6384,7 +6390,7 @@
       <c r="O52" s="1"/>
       <c r="P52" s="10"/>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -6402,7 +6408,7 @@
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E54" s="10"/>
       <c r="F54" s="11"/>
       <c r="G54" s="10"/>
@@ -6416,7 +6422,7 @@
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
       <c r="G55" s="10"/>
@@ -6430,7 +6436,7 @@
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
       <c r="G56" s="10"/>
@@ -6444,7 +6450,7 @@
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E57" s="10"/>
       <c r="F57" s="11"/>
       <c r="G57" s="10"/>
@@ -6458,7 +6464,7 @@
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E58" s="10"/>
       <c r="F58" s="11"/>
       <c r="G58" s="10"/>
@@ -6472,7 +6478,7 @@
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E59" s="10"/>
       <c r="F59" s="11"/>
       <c r="G59" s="10"/>
@@ -6486,7 +6492,7 @@
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E60" s="10"/>
       <c r="F60" s="11"/>
       <c r="G60" s="10"/>
@@ -6500,7 +6506,7 @@
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E61" s="10"/>
       <c r="F61" s="11"/>
       <c r="G61" s="10"/>
@@ -6514,7 +6520,7 @@
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E62" s="10"/>
       <c r="F62" s="11"/>
       <c r="G62" s="10"/>
@@ -6528,7 +6534,7 @@
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E63" s="10"/>
       <c r="F63" s="11"/>
       <c r="G63" s="10"/>
@@ -6542,7 +6548,7 @@
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E64" s="10"/>
       <c r="F64" s="11"/>
       <c r="G64" s="10"/>
@@ -6556,7 +6562,7 @@
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
     </row>
-    <row r="65" spans="5:16">
+    <row r="65" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E65" s="10"/>
       <c r="F65" s="11"/>
       <c r="G65" s="10"/>
@@ -6570,7 +6576,7 @@
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
     </row>
-    <row r="66" spans="5:16">
+    <row r="66" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E66" s="10"/>
       <c r="F66" s="11"/>
       <c r="G66" s="10"/>
@@ -6584,7 +6590,7 @@
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
     </row>
-    <row r="67" spans="5:16">
+    <row r="67" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E67" s="10"/>
       <c r="F67" s="11"/>
       <c r="G67" s="10"/>
@@ -6598,7 +6604,7 @@
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
     </row>
-    <row r="68" spans="5:16">
+    <row r="68" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E68" s="10"/>
       <c r="F68" s="11"/>
       <c r="G68" s="10"/>
@@ -6612,7 +6618,7 @@
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
     </row>
-    <row r="69" spans="5:16">
+    <row r="69" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E69" s="10"/>
       <c r="F69" s="11"/>
       <c r="G69" s="10"/>
@@ -6626,7 +6632,7 @@
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
     </row>
-    <row r="70" spans="5:16">
+    <row r="70" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E70" s="10"/>
       <c r="F70" s="11"/>
       <c r="G70" s="10"/>
@@ -6640,7 +6646,7 @@
       <c r="O70" s="10"/>
       <c r="P70" s="10"/>
     </row>
-    <row r="71" spans="5:16">
+    <row r="71" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E71" s="10"/>
       <c r="F71" s="11"/>
       <c r="G71" s="10"/>
@@ -6654,7 +6660,7 @@
       <c r="O71" s="10"/>
       <c r="P71" s="10"/>
     </row>
-    <row r="72" spans="5:16">
+    <row r="72" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E72" s="10"/>
       <c r="F72" s="11"/>
       <c r="G72" s="10"/>
@@ -6668,7 +6674,7 @@
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
     </row>
-    <row r="73" spans="5:16">
+    <row r="73" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E73" s="10"/>
       <c r="F73" s="11"/>
       <c r="G73" s="10"/>
@@ -6682,7 +6688,7 @@
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
     </row>
-    <row r="74" spans="5:16">
+    <row r="74" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E74" s="10"/>
       <c r="F74" s="11"/>
       <c r="G74" s="10"/>
@@ -6696,7 +6702,7 @@
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
     </row>
-    <row r="75" spans="5:16">
+    <row r="75" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E75" s="10"/>
       <c r="F75" s="11"/>
       <c r="G75" s="10"/>
@@ -6710,7 +6716,7 @@
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
     </row>
-    <row r="76" spans="5:16">
+    <row r="76" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E76" s="10"/>
       <c r="F76" s="11"/>
       <c r="G76" s="10"/>
@@ -6724,7 +6730,7 @@
       <c r="O76" s="10"/>
       <c r="P76" s="10"/>
     </row>
-    <row r="77" spans="5:16">
+    <row r="77" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E77" s="10"/>
       <c r="F77" s="11"/>
       <c r="G77" s="10"/>
@@ -6738,7 +6744,7 @@
       <c r="O77" s="10"/>
       <c r="P77" s="10"/>
     </row>
-    <row r="78" spans="5:16">
+    <row r="78" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E78" s="10"/>
       <c r="F78" s="11"/>
       <c r="G78" s="10"/>
@@ -6752,7 +6758,7 @@
       <c r="O78" s="10"/>
       <c r="P78" s="10"/>
     </row>
-    <row r="79" spans="5:16">
+    <row r="79" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E79" s="10"/>
       <c r="F79" s="11"/>
       <c r="G79" s="10"/>
@@ -6766,7 +6772,7 @@
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
     </row>
-    <row r="80" spans="5:16">
+    <row r="80" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E80" s="10"/>
       <c r="F80" s="11"/>
       <c r="G80" s="10"/>
@@ -6780,7 +6786,7 @@
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
     </row>
-    <row r="81" spans="5:16">
+    <row r="81" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E81" s="10"/>
       <c r="F81" s="11"/>
       <c r="G81" s="10"/>
@@ -6794,7 +6800,7 @@
       <c r="O81" s="10"/>
       <c r="P81" s="10"/>
     </row>
-    <row r="82" spans="5:16">
+    <row r="82" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E82" s="10"/>
       <c r="F82" s="11"/>
       <c r="G82" s="10"/>
@@ -6808,7 +6814,7 @@
       <c r="O82" s="10"/>
       <c r="P82" s="10"/>
     </row>
-    <row r="83" spans="5:16">
+    <row r="83" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E83" s="10"/>
       <c r="F83" s="11"/>
       <c r="G83" s="10"/>
@@ -6822,7 +6828,7 @@
       <c r="O83" s="10"/>
       <c r="P83" s="10"/>
     </row>
-    <row r="84" spans="5:16">
+    <row r="84" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E84" s="10"/>
       <c r="F84" s="11"/>
       <c r="G84" s="10"/>
@@ -6836,7 +6842,7 @@
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
     </row>
-    <row r="85" spans="5:16">
+    <row r="85" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E85" s="10"/>
       <c r="F85" s="11"/>
       <c r="G85" s="10"/>
@@ -6850,7 +6856,7 @@
       <c r="O85" s="10"/>
       <c r="P85" s="10"/>
     </row>
-    <row r="86" spans="5:16">
+    <row r="86" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E86" s="10"/>
       <c r="F86" s="11"/>
       <c r="G86" s="10"/>
@@ -6864,7 +6870,7 @@
       <c r="O86" s="10"/>
       <c r="P86" s="10"/>
     </row>
-    <row r="87" spans="5:16">
+    <row r="87" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E87" s="10"/>
       <c r="F87" s="11"/>
       <c r="G87" s="10"/>
@@ -6878,7 +6884,7 @@
       <c r="O87" s="10"/>
       <c r="P87" s="10"/>
     </row>
-    <row r="88" spans="5:16">
+    <row r="88" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E88" s="10"/>
       <c r="F88" s="11"/>
       <c r="G88" s="10"/>
@@ -6892,7 +6898,7 @@
       <c r="O88" s="10"/>
       <c r="P88" s="10"/>
     </row>
-    <row r="89" spans="5:16">
+    <row r="89" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E89" s="10"/>
       <c r="F89" s="11"/>
       <c r="G89" s="10"/>
@@ -6906,7 +6912,7 @@
       <c r="O89" s="10"/>
       <c r="P89" s="10"/>
     </row>
-    <row r="90" spans="5:16">
+    <row r="90" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E90" s="10"/>
       <c r="F90" s="11"/>
       <c r="G90" s="10"/>
@@ -6920,7 +6926,7 @@
       <c r="O90" s="10"/>
       <c r="P90" s="10"/>
     </row>
-    <row r="91" spans="5:16">
+    <row r="91" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E91" s="10"/>
       <c r="F91" s="11"/>
       <c r="G91" s="10"/>
@@ -6934,7 +6940,7 @@
       <c r="O91" s="10"/>
       <c r="P91" s="10"/>
     </row>
-    <row r="92" spans="5:16">
+    <row r="92" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E92" s="10"/>
       <c r="F92" s="11"/>
       <c r="G92" s="10"/>
@@ -6948,7 +6954,7 @@
       <c r="O92" s="10"/>
       <c r="P92" s="10"/>
     </row>
-    <row r="93" spans="5:16">
+    <row r="93" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E93" s="10"/>
       <c r="F93" s="11"/>
       <c r="G93" s="10"/>
@@ -6962,7 +6968,7 @@
       <c r="O93" s="10"/>
       <c r="P93" s="10"/>
     </row>
-    <row r="94" spans="5:16">
+    <row r="94" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E94" s="10"/>
       <c r="F94" s="11"/>
       <c r="G94" s="10"/>
@@ -6976,7 +6982,7 @@
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
     </row>
-    <row r="95" spans="5:16">
+    <row r="95" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E95" s="10"/>
       <c r="F95" s="11"/>
       <c r="G95" s="10"/>
@@ -6990,7 +6996,7 @@
       <c r="O95" s="10"/>
       <c r="P95" s="10"/>
     </row>
-    <row r="96" spans="5:16">
+    <row r="96" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E96" s="10"/>
       <c r="F96" s="11"/>
       <c r="G96" s="10"/>
@@ -7004,7 +7010,7 @@
       <c r="O96" s="10"/>
       <c r="P96" s="10"/>
     </row>
-    <row r="97" spans="5:16">
+    <row r="97" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E97" s="10"/>
       <c r="F97" s="11"/>
       <c r="G97" s="10"/>
@@ -7018,7 +7024,7 @@
       <c r="O97" s="10"/>
       <c r="P97" s="10"/>
     </row>
-    <row r="98" spans="5:16">
+    <row r="98" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E98" s="10"/>
       <c r="F98" s="11"/>
       <c r="G98" s="10"/>
@@ -7032,7 +7038,7 @@
       <c r="O98" s="10"/>
       <c r="P98" s="10"/>
     </row>
-    <row r="99" spans="5:16">
+    <row r="99" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E99" s="10"/>
       <c r="F99" s="11"/>
       <c r="G99" s="10"/>
@@ -7046,7 +7052,7 @@
       <c r="O99" s="10"/>
       <c r="P99" s="10"/>
     </row>
-    <row r="100" spans="5:16">
+    <row r="100" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E100" s="10"/>
       <c r="F100" s="11"/>
       <c r="G100" s="10"/>
@@ -7060,7 +7066,7 @@
       <c r="O100" s="10"/>
       <c r="P100" s="10"/>
     </row>
-    <row r="101" spans="5:16">
+    <row r="101" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E101" s="10"/>
       <c r="F101" s="11"/>
       <c r="G101" s="10"/>
@@ -7074,7 +7080,7 @@
       <c r="O101" s="10"/>
       <c r="P101" s="10"/>
     </row>
-    <row r="102" spans="5:16">
+    <row r="102" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E102" s="10"/>
       <c r="F102" s="11"/>
       <c r="G102" s="10"/>
@@ -7088,7 +7094,7 @@
       <c r="O102" s="10"/>
       <c r="P102" s="10"/>
     </row>
-    <row r="103" spans="5:16">
+    <row r="103" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E103" s="10"/>
       <c r="F103" s="11"/>
       <c r="G103" s="10"/>
@@ -7102,7 +7108,7 @@
       <c r="O103" s="10"/>
       <c r="P103" s="10"/>
     </row>
-    <row r="104" spans="5:16">
+    <row r="104" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E104" s="10"/>
       <c r="F104" s="11"/>
       <c r="G104" s="10"/>
@@ -7116,7 +7122,7 @@
       <c r="O104" s="10"/>
       <c r="P104" s="10"/>
     </row>
-    <row r="105" spans="5:16">
+    <row r="105" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E105" s="10"/>
       <c r="F105" s="11"/>
       <c r="G105" s="10"/>
@@ -7130,7 +7136,7 @@
       <c r="O105" s="10"/>
       <c r="P105" s="10"/>
     </row>
-    <row r="106" spans="5:16">
+    <row r="106" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E106" s="10"/>
       <c r="F106" s="11"/>
       <c r="G106" s="10"/>
@@ -7144,7 +7150,7 @@
       <c r="O106" s="10"/>
       <c r="P106" s="10"/>
     </row>
-    <row r="107" spans="5:16">
+    <row r="107" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E107" s="10"/>
       <c r="F107" s="11"/>
       <c r="G107" s="10"/>
@@ -7158,7 +7164,7 @@
       <c r="O107" s="10"/>
       <c r="P107" s="10"/>
     </row>
-    <row r="108" spans="5:16">
+    <row r="108" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E108" s="10"/>
       <c r="F108" s="11"/>
       <c r="G108" s="10"/>
@@ -7172,7 +7178,7 @@
       <c r="O108" s="10"/>
       <c r="P108" s="10"/>
     </row>
-    <row r="109" spans="5:16">
+    <row r="109" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E109" s="10"/>
       <c r="F109" s="11"/>
       <c r="G109" s="10"/>
@@ -7186,7 +7192,7 @@
       <c r="O109" s="10"/>
       <c r="P109" s="10"/>
     </row>
-    <row r="110" spans="5:16">
+    <row r="110" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E110" s="10"/>
       <c r="F110" s="11"/>
       <c r="G110" s="10"/>
@@ -7200,7 +7206,7 @@
       <c r="O110" s="10"/>
       <c r="P110" s="10"/>
     </row>
-    <row r="111" spans="5:16">
+    <row r="111" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E111" s="10"/>
       <c r="F111" s="11"/>
       <c r="G111" s="10"/>
@@ -7214,7 +7220,7 @@
       <c r="O111" s="10"/>
       <c r="P111" s="10"/>
     </row>
-    <row r="112" spans="5:16">
+    <row r="112" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E112" s="10"/>
       <c r="F112" s="11"/>
       <c r="G112" s="10"/>
@@ -7228,7 +7234,7 @@
       <c r="O112" s="10"/>
       <c r="P112" s="10"/>
     </row>
-    <row r="113" spans="5:16">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E113" s="10"/>
       <c r="F113" s="11"/>
       <c r="G113" s="10"/>
@@ -7242,7 +7248,7 @@
       <c r="O113" s="10"/>
       <c r="P113" s="10"/>
     </row>
-    <row r="114" spans="5:16">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E114" s="10"/>
       <c r="F114" s="11"/>
       <c r="G114" s="10"/>
@@ -7256,7 +7262,7 @@
       <c r="O114" s="10"/>
       <c r="P114" s="10"/>
     </row>
-    <row r="115" spans="5:16">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E115" s="10"/>
       <c r="F115" s="11"/>
       <c r="G115" s="10"/>
@@ -7270,7 +7276,7 @@
       <c r="O115" s="10"/>
       <c r="P115" s="10"/>
     </row>
-    <row r="116" spans="5:16">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E116" s="10"/>
       <c r="F116" s="11"/>
       <c r="G116" s="10"/>
@@ -7284,7 +7290,7 @@
       <c r="O116" s="10"/>
       <c r="P116" s="10"/>
     </row>
-    <row r="117" spans="5:16">
+    <row r="117" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E117" s="10"/>
       <c r="F117" s="11"/>
       <c r="G117" s="10"/>
@@ -7298,7 +7304,7 @@
       <c r="O117" s="10"/>
       <c r="P117" s="10"/>
     </row>
-    <row r="118" spans="5:16">
+    <row r="118" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E118" s="10"/>
       <c r="F118" s="11"/>
       <c r="G118" s="10"/>
@@ -7312,7 +7318,7 @@
       <c r="O118" s="10"/>
       <c r="P118" s="10"/>
     </row>
-    <row r="119" spans="5:16">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E119" s="10"/>
       <c r="F119" s="11"/>
       <c r="G119" s="10"/>
@@ -7326,7 +7332,7 @@
       <c r="O119" s="10"/>
       <c r="P119" s="10"/>
     </row>
-    <row r="120" spans="5:16">
+    <row r="120" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E120" s="10"/>
       <c r="F120" s="11"/>
       <c r="G120" s="10"/>
@@ -7340,7 +7346,7 @@
       <c r="O120" s="10"/>
       <c r="P120" s="10"/>
     </row>
-    <row r="121" spans="5:16">
+    <row r="121" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E121" s="10"/>
       <c r="F121" s="11"/>
       <c r="G121" s="10"/>
@@ -7354,7 +7360,7 @@
       <c r="O121" s="10"/>
       <c r="P121" s="10"/>
     </row>
-    <row r="122" spans="5:16">
+    <row r="122" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E122" s="10"/>
       <c r="F122" s="11"/>
       <c r="G122" s="10"/>
@@ -7368,7 +7374,7 @@
       <c r="O122" s="10"/>
       <c r="P122" s="10"/>
     </row>
-    <row r="123" spans="5:16">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E123" s="10"/>
       <c r="F123" s="11"/>
       <c r="G123" s="10"/>
@@ -7382,7 +7388,7 @@
       <c r="O123" s="10"/>
       <c r="P123" s="10"/>
     </row>
-    <row r="124" spans="5:16">
+    <row r="124" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E124" s="10"/>
       <c r="F124" s="11"/>
       <c r="G124" s="10"/>
@@ -7396,7 +7402,7 @@
       <c r="O124" s="10"/>
       <c r="P124" s="10"/>
     </row>
-    <row r="125" spans="5:16">
+    <row r="125" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E125" s="10"/>
       <c r="F125" s="11"/>
       <c r="G125" s="10"/>
@@ -7410,7 +7416,7 @@
       <c r="O125" s="10"/>
       <c r="P125" s="10"/>
     </row>
-    <row r="126" spans="5:16">
+    <row r="126" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E126" s="10"/>
       <c r="F126" s="11"/>
       <c r="G126" s="10"/>
@@ -7424,7 +7430,7 @@
       <c r="O126" s="10"/>
       <c r="P126" s="10"/>
     </row>
-    <row r="127" spans="5:16">
+    <row r="127" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E127" s="10"/>
       <c r="F127" s="11"/>
       <c r="G127" s="10"/>
@@ -7438,7 +7444,7 @@
       <c r="O127" s="10"/>
       <c r="P127" s="10"/>
     </row>
-    <row r="128" spans="5:16">
+    <row r="128" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E128" s="10"/>
       <c r="F128" s="11"/>
       <c r="G128" s="10"/>
@@ -7452,7 +7458,7 @@
       <c r="O128" s="10"/>
       <c r="P128" s="10"/>
     </row>
-    <row r="129" spans="5:16">
+    <row r="129" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E129" s="10"/>
       <c r="F129" s="11"/>
       <c r="G129" s="10"/>
@@ -7466,7 +7472,7 @@
       <c r="O129" s="10"/>
       <c r="P129" s="10"/>
     </row>
-    <row r="130" spans="5:16">
+    <row r="130" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E130" s="10"/>
       <c r="F130" s="11"/>
       <c r="G130" s="10"/>
@@ -7480,7 +7486,7 @@
       <c r="O130" s="10"/>
       <c r="P130" s="10"/>
     </row>
-    <row r="131" spans="5:16">
+    <row r="131" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E131" s="10"/>
       <c r="F131" s="11"/>
       <c r="G131" s="10"/>
@@ -7494,7 +7500,7 @@
       <c r="O131" s="10"/>
       <c r="P131" s="10"/>
     </row>
-    <row r="132" spans="5:16">
+    <row r="132" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E132" s="10"/>
       <c r="F132" s="11"/>
       <c r="G132" s="10"/>
@@ -7508,7 +7514,7 @@
       <c r="O132" s="10"/>
       <c r="P132" s="10"/>
     </row>
-    <row r="133" spans="5:16">
+    <row r="133" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E133" s="10"/>
       <c r="F133" s="11"/>
       <c r="G133" s="10"/>
@@ -7522,7 +7528,7 @@
       <c r="O133" s="10"/>
       <c r="P133" s="10"/>
     </row>
-    <row r="134" spans="5:16">
+    <row r="134" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E134" s="10"/>
       <c r="F134" s="11"/>
       <c r="G134" s="10"/>
@@ -7536,7 +7542,7 @@
       <c r="O134" s="10"/>
       <c r="P134" s="10"/>
     </row>
-    <row r="135" spans="5:16">
+    <row r="135" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E135" s="10"/>
       <c r="F135" s="11"/>
       <c r="G135" s="10"/>
@@ -7550,7 +7556,7 @@
       <c r="O135" s="10"/>
       <c r="P135" s="10"/>
     </row>
-    <row r="136" spans="5:16">
+    <row r="136" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E136" s="10"/>
       <c r="F136" s="11"/>
       <c r="G136" s="10"/>
@@ -7564,7 +7570,7 @@
       <c r="O136" s="10"/>
       <c r="P136" s="10"/>
     </row>
-    <row r="137" spans="5:16">
+    <row r="137" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E137" s="10"/>
       <c r="F137" s="11"/>
       <c r="G137" s="10"/>
@@ -7578,7 +7584,7 @@
       <c r="O137" s="10"/>
       <c r="P137" s="10"/>
     </row>
-    <row r="138" spans="5:16">
+    <row r="138" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E138" s="10"/>
       <c r="F138" s="11"/>
       <c r="G138" s="10"/>
@@ -7592,7 +7598,7 @@
       <c r="O138" s="10"/>
       <c r="P138" s="10"/>
     </row>
-    <row r="139" spans="5:16">
+    <row r="139" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E139" s="10"/>
       <c r="F139" s="11"/>
       <c r="G139" s="10"/>
@@ -7606,7 +7612,7 @@
       <c r="O139" s="10"/>
       <c r="P139" s="10"/>
     </row>
-    <row r="140" spans="5:16">
+    <row r="140" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E140" s="10"/>
       <c r="F140" s="11"/>
       <c r="G140" s="10"/>
@@ -7620,7 +7626,7 @@
       <c r="O140" s="10"/>
       <c r="P140" s="10"/>
     </row>
-    <row r="141" spans="5:16">
+    <row r="141" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E141" s="10"/>
       <c r="F141" s="11"/>
       <c r="G141" s="10"/>
@@ -7634,7 +7640,7 @@
       <c r="O141" s="10"/>
       <c r="P141" s="10"/>
     </row>
-    <row r="142" spans="5:16">
+    <row r="142" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E142" s="10"/>
       <c r="F142" s="11"/>
       <c r="G142" s="10"/>
@@ -7648,7 +7654,7 @@
       <c r="O142" s="10"/>
       <c r="P142" s="10"/>
     </row>
-    <row r="143" spans="5:16">
+    <row r="143" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E143" s="10"/>
       <c r="F143" s="11"/>
       <c r="G143" s="10"/>
@@ -7662,7 +7668,7 @@
       <c r="O143" s="10"/>
       <c r="P143" s="10"/>
     </row>
-    <row r="144" spans="5:16">
+    <row r="144" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E144" s="10"/>
       <c r="F144" s="11"/>
       <c r="G144" s="10"/>
@@ -7676,7 +7682,7 @@
       <c r="O144" s="10"/>
       <c r="P144" s="10"/>
     </row>
-    <row r="145" spans="5:16">
+    <row r="145" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E145" s="10"/>
       <c r="F145" s="11"/>
       <c r="G145" s="10"/>
@@ -7690,7 +7696,7 @@
       <c r="O145" s="10"/>
       <c r="P145" s="10"/>
     </row>
-    <row r="146" spans="5:16">
+    <row r="146" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E146" s="10"/>
       <c r="F146" s="11"/>
       <c r="G146" s="10"/>
@@ -7704,7 +7710,7 @@
       <c r="O146" s="10"/>
       <c r="P146" s="10"/>
     </row>
-    <row r="147" spans="5:16">
+    <row r="147" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E147" s="10"/>
       <c r="F147" s="11"/>
       <c r="G147" s="10"/>
@@ -7718,7 +7724,7 @@
       <c r="O147" s="10"/>
       <c r="P147" s="10"/>
     </row>
-    <row r="148" spans="5:16">
+    <row r="148" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E148" s="10"/>
       <c r="F148" s="11"/>
       <c r="G148" s="10"/>
@@ -7732,7 +7738,7 @@
       <c r="O148" s="10"/>
       <c r="P148" s="10"/>
     </row>
-    <row r="149" spans="5:16">
+    <row r="149" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E149" s="10"/>
       <c r="F149" s="11"/>
       <c r="G149" s="10"/>
@@ -7746,7 +7752,7 @@
       <c r="O149" s="10"/>
       <c r="P149" s="10"/>
     </row>
-    <row r="150" spans="5:16">
+    <row r="150" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E150" s="10"/>
       <c r="F150" s="11"/>
       <c r="G150" s="10"/>
@@ -7760,7 +7766,7 @@
       <c r="O150" s="10"/>
       <c r="P150" s="10"/>
     </row>
-    <row r="151" spans="5:16">
+    <row r="151" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E151" s="10"/>
       <c r="F151" s="11"/>
       <c r="G151" s="10"/>
@@ -7774,7 +7780,7 @@
       <c r="O151" s="10"/>
       <c r="P151" s="10"/>
     </row>
-    <row r="152" spans="5:16">
+    <row r="152" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E152" s="10"/>
       <c r="F152" s="11"/>
       <c r="G152" s="10"/>
@@ -7788,7 +7794,7 @@
       <c r="O152" s="10"/>
       <c r="P152" s="10"/>
     </row>
-    <row r="153" spans="5:16">
+    <row r="153" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E153" s="10"/>
       <c r="F153" s="11"/>
       <c r="G153" s="10"/>
@@ -7802,7 +7808,7 @@
       <c r="O153" s="10"/>
       <c r="P153" s="10"/>
     </row>
-    <row r="154" spans="5:16">
+    <row r="154" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E154" s="10"/>
       <c r="F154" s="11"/>
       <c r="G154" s="10"/>
@@ -7816,7 +7822,7 @@
       <c r="O154" s="10"/>
       <c r="P154" s="10"/>
     </row>
-    <row r="155" spans="5:16">
+    <row r="155" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E155" s="10"/>
       <c r="F155" s="11"/>
       <c r="G155" s="10"/>
@@ -7830,7 +7836,7 @@
       <c r="O155" s="10"/>
       <c r="P155" s="10"/>
     </row>
-    <row r="156" spans="5:16">
+    <row r="156" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E156" s="10"/>
       <c r="F156" s="11"/>
       <c r="G156" s="10"/>
@@ -7844,7 +7850,7 @@
       <c r="O156" s="10"/>
       <c r="P156" s="10"/>
     </row>
-    <row r="157" spans="5:16">
+    <row r="157" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E157" s="10"/>
       <c r="F157" s="11"/>
       <c r="G157" s="10"/>
@@ -7858,7 +7864,7 @@
       <c r="O157" s="10"/>
       <c r="P157" s="10"/>
     </row>
-    <row r="158" spans="5:16">
+    <row r="158" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E158" s="10"/>
       <c r="F158" s="11"/>
       <c r="G158" s="10"/>
@@ -7872,7 +7878,7 @@
       <c r="O158" s="10"/>
       <c r="P158" s="10"/>
     </row>
-    <row r="159" spans="5:16">
+    <row r="159" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E159" s="10"/>
       <c r="F159" s="11"/>
       <c r="G159" s="10"/>
@@ -7886,7 +7892,7 @@
       <c r="O159" s="10"/>
       <c r="P159" s="10"/>
     </row>
-    <row r="160" spans="5:16">
+    <row r="160" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>
       <c r="G160" s="10"/>
@@ -7900,7 +7906,7 @@
       <c r="O160" s="10"/>
       <c r="P160" s="10"/>
     </row>
-    <row r="161" spans="5:16">
+    <row r="161" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E161" s="10"/>
       <c r="F161" s="10"/>
       <c r="G161" s="10"/>
@@ -7962,7 +7968,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor rgb="FF99FF99"/>
   </sheetPr>
   <dimension ref="A1:M53"/>
@@ -7971,18 +7977,18 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" customWidth="1"/>
-    <col min="4" max="5" width="24.1640625" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="9" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="4" max="5" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="9" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23">
+    <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
@@ -8008,7 +8014,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="98">
+    <row r="2" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
@@ -8034,7 +8040,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="112">
+    <row r="3" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -8059,7 +8065,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="112">
+    <row r="4" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>76</v>
       </c>
@@ -8084,7 +8090,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="126">
+    <row r="5" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>77</v>
       </c>
@@ -8109,7 +8115,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="98">
+    <row r="6" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
@@ -8134,7 +8140,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="98">
+    <row r="7" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>79</v>
       </c>
@@ -8159,7 +8165,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="98">
+    <row r="8" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -8184,7 +8190,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="98">
+    <row r="9" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -8209,7 +8215,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="98">
+    <row r="10" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>83</v>
       </c>
@@ -8234,7 +8240,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="126">
+    <row r="11" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>84</v>
       </c>
@@ -8259,7 +8265,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="71" customHeight="1">
+    <row r="12" spans="1:13" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>89</v>
       </c>
@@ -8284,7 +8290,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="126">
+    <row r="13" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>122</v>
       </c>
@@ -8309,7 +8315,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="126">
+    <row r="14" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>123</v>
       </c>
@@ -8334,7 +8340,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="126">
+    <row r="15" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>124</v>
       </c>
@@ -8359,7 +8365,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="112">
+    <row r="16" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>125</v>
       </c>
@@ -8384,7 +8390,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="112">
+    <row r="17" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>136</v>
       </c>
@@ -8409,7 +8415,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="98">
+    <row r="18" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>137</v>
       </c>
@@ -8434,7 +8440,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" ht="98">
+    <row r="19" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>138</v>
       </c>
@@ -8459,7 +8465,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" ht="112">
+    <row r="20" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>139</v>
       </c>
@@ -8476,7 +8482,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="98">
+    <row r="21" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>156</v>
       </c>
@@ -8493,7 +8499,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="98">
+    <row r="22" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>157</v>
       </c>
@@ -8510,7 +8516,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="84">
+    <row r="23" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>158</v>
       </c>
@@ -8527,7 +8533,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="84">
+    <row r="24" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>230</v>
       </c>
@@ -8544,7 +8550,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="84">
+    <row r="25" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>259</v>
       </c>
@@ -8561,7 +8567,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="84">
+    <row r="26" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>260</v>
       </c>
@@ -8578,7 +8584,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="78">
+    <row r="27" spans="1:13" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>261</v>
       </c>
@@ -8595,7 +8601,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="91">
+    <row r="28" spans="1:13" ht="114" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>268</v>
       </c>
@@ -8612,7 +8618,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="91">
+    <row r="29" spans="1:13" ht="114" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>284</v>
       </c>
@@ -8629,7 +8635,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="42">
+    <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>285</v>
       </c>
@@ -8646,7 +8652,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="56">
+    <row r="31" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>286</v>
       </c>
@@ -8663,7 +8669,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="42">
+    <row r="32" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>311</v>
       </c>
@@ -8680,147 +8686,147 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="32"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="32"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="3"/>
       <c r="D35" s="1"/>
       <c r="E35" s="32"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="3"/>
       <c r="D36" s="1"/>
       <c r="E36" s="32"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="32"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="32"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="32"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="32"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="3"/>
       <c r="D41" s="1"/>
       <c r="E41" s="32"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="38"/>
       <c r="D42" s="1"/>
       <c r="E42" s="32"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="32"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="32"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="32"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="32"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="3"/>
       <c r="D47" s="1"/>
       <c r="E47" s="32"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="38"/>
       <c r="D48" s="1"/>
       <c r="E48" s="32"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="32"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="32"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="32"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="32"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="3"/>
@@ -8846,14 +8852,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -8867,7 +8873,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>23</v>
       </c>
@@ -8881,7 +8887,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>24</v>
       </c>
@@ -8895,7 +8901,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>25</v>
       </c>
@@ -8909,12 +8915,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>38</v>
       </c>
@@ -8930,6 +8936,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -9043,33 +9064,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9084,9 +9082,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>